--- a/file_crawler_project/file_crawler.xlsx
+++ b/file_crawler_project/file_crawler.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
   <si>
     <t>Root Folder</t>
   </si>
@@ -196,10 +197,16 @@
     <t>.xlsx</t>
   </si>
   <si>
-    <t>11K</t>
+    <t>5K</t>
   </si>
   <si>
     <t>2009</t>
+  </si>
+  <si>
+    <t>crawler_env</t>
+  </si>
+  <si>
+    <t>__pycache__</t>
   </si>
 </sst>
 </file>
@@ -577,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>11230390</v>
+        <v>11231617</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -597,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>13602784</v>
+        <v>13605080</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1097,13 +1104,13 @@
         <v>59</v>
       </c>
       <c r="G28">
-        <v>12086</v>
+        <v>5646</v>
       </c>
       <c r="I28" t="s">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1144,6 +1151,639 @@
       </c>
       <c r="K30">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>11226315</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13595244</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>168200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>27766238</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>298228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>531</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>181926</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>716</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>8640</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>4420096</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>43534</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>8328</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>325</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>791</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>815</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>182724</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>6358</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>50191</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20">
+        <v>282394</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>2736</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>2243057</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>628</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24">
+        <v>356</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>535</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>1364</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27">
+        <v>18456</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28">
+        <v>5646</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>2484</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>1113</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>5302</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/file_crawler_project/file_crawler.xlsx
+++ b/file_crawler_project/file_crawler.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
   <si>
     <t>Root Folder</t>
   </si>
@@ -197,13 +197,16 @@
     <t>.xlsx</t>
   </si>
   <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>crawler_env</t>
+  </si>
+  <si>
     <t>5K</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>crawler_env</t>
   </si>
   <si>
     <t>__pycache__</t>
@@ -604,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>13605080</v>
+        <v>13605081</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1104,13 +1107,13 @@
         <v>59</v>
       </c>
       <c r="G28">
-        <v>5646</v>
+        <v>13468</v>
       </c>
       <c r="I28" t="s">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1720,7 +1723,7 @@
         <v>5646</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1780,7 +1783,7 @@
         <v>5302</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31">
         <v>2</v>
